--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>Datum</t>
   </si>
@@ -524,6 +524,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -532,6 +533,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,19 +552,82 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="121">
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -932,76 +1002,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1975,8 +1975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,10 +1995,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="41" t="s">
         <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2033,7 +2033,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
+      <c r="B3" s="42"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="38">
+      <c r="B4" s="39">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -2100,7 +2100,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>43144</v>
@@ -2136,7 +2136,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>43145</v>
@@ -2175,7 +2175,7 @@
       <c r="A7">
         <v>7</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>43146</v>
@@ -2208,7 +2208,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>43147</v>
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="38"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>43148</v>
@@ -2277,7 +2277,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
       <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>43149</v>
@@ -2313,7 +2313,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
+      <c r="B11" s="43">
         <v>4</v>
       </c>
       <c r="C11" s="1">
@@ -2351,7 +2351,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>43151</v>
@@ -2387,7 +2387,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>43152</v>
@@ -2436,7 +2436,7 @@
       <c r="A14">
         <v>8</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>43153</v>
@@ -2482,7 +2482,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>43154</v>
@@ -2528,7 +2528,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>43155</v>
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="17" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>43156</v>
@@ -2600,7 +2600,7 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="1">
@@ -2638,7 +2638,7 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>43158</v>
@@ -2674,7 +2674,7 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>43159</v>
@@ -2723,7 +2723,7 @@
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>43160</v>
@@ -2769,7 +2769,7 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>43161</v>
@@ -2815,7 +2815,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>43162</v>
@@ -2851,7 +2851,7 @@
       </c>
     </row>
     <row r="24" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="11">
         <f t="shared" si="0"/>
         <v>43163</v>
@@ -2887,7 +2887,7 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="37">
+      <c r="B25" s="38">
         <v>2</v>
       </c>
       <c r="C25" s="1">
@@ -2925,7 +2925,7 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>43165</v>
@@ -2961,7 +2961,7 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="1">
         <f t="shared" ref="C27:C54" si="7">C28-1</f>
         <v>43166</v>
@@ -3010,7 +3010,7 @@
       <c r="A28">
         <v>10</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="1">
         <f t="shared" si="7"/>
         <v>43167</v>
@@ -3056,7 +3056,7 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="1">
         <f t="shared" si="7"/>
         <v>43168</v>
@@ -3102,7 +3102,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="1">
         <f t="shared" si="7"/>
         <v>43169</v>
@@ -3138,7 +3138,7 @@
       </c>
     </row>
     <row r="31" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="39"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="11">
         <f t="shared" si="7"/>
         <v>43170</v>
@@ -3174,7 +3174,7 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="37">
+      <c r="B32" s="38">
         <v>3</v>
       </c>
       <c r="C32" s="1">
@@ -3212,7 +3212,7 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="1">
         <f t="shared" si="7"/>
         <v>43172</v>
@@ -3248,7 +3248,7 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="1">
         <f t="shared" si="7"/>
         <v>43173</v>
@@ -3297,7 +3297,7 @@
       <c r="A35">
         <v>11</v>
       </c>
-      <c r="B35" s="38"/>
+      <c r="B35" s="39"/>
       <c r="C35" s="1">
         <f t="shared" si="7"/>
         <v>43174</v>
@@ -3343,7 +3343,7 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="1">
         <f t="shared" si="7"/>
         <v>43175</v>
@@ -3389,7 +3389,7 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
+      <c r="B37" s="39"/>
       <c r="C37" s="1">
         <f t="shared" si="7"/>
         <v>43176</v>
@@ -3425,7 +3425,7 @@
       </c>
     </row>
     <row r="38" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="39"/>
+      <c r="B38" s="40"/>
       <c r="C38" s="11">
         <f t="shared" si="7"/>
         <v>43177</v>
@@ -3461,7 +3461,7 @@
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B39" s="37">
+      <c r="B39" s="38">
         <v>4</v>
       </c>
       <c r="C39" s="1">
@@ -3499,7 +3499,7 @@
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
+      <c r="B40" s="39"/>
       <c r="C40" s="1">
         <f t="shared" si="7"/>
         <v>43179</v>
@@ -3535,7 +3535,7 @@
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
+      <c r="B41" s="39"/>
       <c r="C41" s="1">
         <f t="shared" si="7"/>
         <v>43180</v>
@@ -3574,7 +3574,7 @@
       <c r="A42">
         <v>12</v>
       </c>
-      <c r="B42" s="38"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="1">
         <f t="shared" si="7"/>
         <v>43181</v>
@@ -3620,7 +3620,7 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="1">
         <f t="shared" si="7"/>
         <v>43182</v>
@@ -3666,7 +3666,7 @@
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
+      <c r="B44" s="39"/>
       <c r="C44" s="1">
         <f t="shared" si="7"/>
         <v>43183</v>
@@ -3702,7 +3702,7 @@
       </c>
     </row>
     <row r="45" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="39"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="11">
         <f t="shared" si="7"/>
         <v>43184</v>
@@ -3738,7 +3738,7 @@
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B46" s="37">
+      <c r="B46" s="38">
         <v>5</v>
       </c>
       <c r="C46" s="1">
@@ -3776,7 +3776,7 @@
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B47" s="38"/>
+      <c r="B47" s="39"/>
       <c r="C47" s="1">
         <f t="shared" si="7"/>
         <v>43186</v>
@@ -3812,7 +3812,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="1">
         <f t="shared" si="7"/>
         <v>43187</v>
@@ -3861,7 +3861,7 @@
       <c r="A49">
         <v>13</v>
       </c>
-      <c r="B49" s="38"/>
+      <c r="B49" s="39"/>
       <c r="C49" s="1">
         <f t="shared" si="7"/>
         <v>43188</v>
@@ -3907,7 +3907,7 @@
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
+      <c r="B50" s="39"/>
       <c r="C50" s="1">
         <f t="shared" si="7"/>
         <v>43189</v>
@@ -3953,7 +3953,7 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="1">
         <f t="shared" si="7"/>
         <v>43190</v>
@@ -3989,7 +3989,7 @@
       </c>
     </row>
     <row r="52" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="39"/>
+      <c r="B52" s="40"/>
       <c r="C52" s="11">
         <f t="shared" si="7"/>
         <v>43191</v>
@@ -4025,7 +4025,7 @@
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B53" s="37">
+      <c r="B53" s="38">
         <v>1</v>
       </c>
       <c r="C53" s="19">
@@ -4067,7 +4067,7 @@
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
+      <c r="B54" s="39"/>
       <c r="C54" s="1">
         <f t="shared" si="7"/>
         <v>43193</v>
@@ -4103,7 +4103,7 @@
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
+      <c r="B55" s="39"/>
       <c r="C55" s="1">
         <v>43194</v>
       </c>
@@ -4151,7 +4151,7 @@
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="38"/>
+      <c r="B56" s="39"/>
       <c r="C56" s="1">
         <f>C55+1</f>
         <v>43195</v>
@@ -4197,7 +4197,7 @@
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B57" s="38"/>
+      <c r="B57" s="39"/>
       <c r="C57" s="1">
         <f t="shared" ref="C57:C59" si="8">C56+1</f>
         <v>43196</v>
@@ -4243,7 +4243,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B58" s="38"/>
+      <c r="B58" s="39"/>
       <c r="C58" s="1">
         <f t="shared" si="8"/>
         <v>43197</v>
@@ -4279,7 +4279,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="39"/>
+      <c r="B59" s="40"/>
       <c r="C59" s="25">
         <f t="shared" si="8"/>
         <v>43198</v>
@@ -4315,7 +4315,7 @@
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B60" s="37">
+      <c r="B60" s="38">
         <v>2</v>
       </c>
       <c r="C60" s="1">
@@ -4353,7 +4353,7 @@
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
+      <c r="B61" s="39"/>
       <c r="C61" s="1">
         <f t="shared" si="9"/>
         <v>43200</v>
@@ -4389,7 +4389,7 @@
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="1">
         <f t="shared" si="9"/>
         <v>43201</v>
@@ -4436,7 +4436,7 @@
       <c r="A63">
         <v>15</v>
       </c>
-      <c r="B63" s="38"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="1">
         <f t="shared" si="9"/>
         <v>43202</v>
@@ -4480,7 +4480,7 @@
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B64" s="38"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="1">
         <f t="shared" si="9"/>
         <v>43203</v>
@@ -4522,7 +4522,7 @@
       </c>
     </row>
     <row r="65" spans="1:16" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="38"/>
+      <c r="B65" s="39"/>
       <c r="C65" s="18">
         <f t="shared" si="9"/>
         <v>43204</v>
@@ -4558,7 +4558,7 @@
       </c>
     </row>
     <row r="66" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="39"/>
+      <c r="B66" s="40"/>
       <c r="C66" s="11">
         <f t="shared" si="9"/>
         <v>43205</v>
@@ -4594,7 +4594,7 @@
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="37">
+      <c r="B67" s="38">
         <v>3</v>
       </c>
       <c r="C67" s="1">
@@ -4632,7 +4632,7 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
+      <c r="B68" s="39"/>
       <c r="C68" s="1">
         <f t="shared" si="9"/>
         <v>43207</v>
@@ -4668,7 +4668,7 @@
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="38"/>
+      <c r="B69" s="39"/>
       <c r="C69" s="1">
         <f t="shared" si="9"/>
         <v>43208</v>
@@ -4713,7 +4713,7 @@
       <c r="A70">
         <v>16</v>
       </c>
-      <c r="B70" s="38"/>
+      <c r="B70" s="39"/>
       <c r="C70" s="1">
         <f t="shared" si="9"/>
         <v>43209</v>
@@ -4755,7 +4755,7 @@
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
+      <c r="B71" s="39"/>
       <c r="C71" s="1">
         <f t="shared" si="9"/>
         <v>43210</v>
@@ -4795,7 +4795,7 @@
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="38"/>
+      <c r="B72" s="39"/>
       <c r="C72" s="1">
         <f t="shared" si="9"/>
         <v>43211</v>
@@ -4835,7 +4835,7 @@
       </c>
     </row>
     <row r="73" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="39"/>
+      <c r="B73" s="40"/>
       <c r="C73" s="11">
         <f t="shared" si="9"/>
         <v>43212</v>
@@ -4875,7 +4875,7 @@
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="37">
+      <c r="B74" s="38">
         <v>4</v>
       </c>
       <c r="C74" s="1">
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="38"/>
+      <c r="B75" s="39"/>
       <c r="C75" s="1">
         <f t="shared" si="9"/>
         <v>43214</v>
@@ -4953,7 +4953,7 @@
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="38"/>
+      <c r="B76" s="39"/>
       <c r="C76" s="1">
         <f t="shared" si="9"/>
         <v>43215</v>
@@ -4998,7 +4998,7 @@
       <c r="A77">
         <v>17</v>
       </c>
-      <c r="B77" s="38"/>
+      <c r="B77" s="39"/>
       <c r="C77" s="1">
         <f t="shared" si="9"/>
         <v>43216</v>
@@ -5040,7 +5040,7 @@
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
+      <c r="B78" s="39"/>
       <c r="C78" s="1">
         <f t="shared" si="9"/>
         <v>43217</v>
@@ -5082,7 +5082,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B79" s="38"/>
+      <c r="B79" s="39"/>
       <c r="C79" s="1">
         <f t="shared" si="9"/>
         <v>43218</v>
@@ -5118,7 +5118,7 @@
       </c>
     </row>
     <row r="80" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="39"/>
+      <c r="B80" s="40"/>
       <c r="C80" s="11">
         <f t="shared" si="9"/>
         <v>43219</v>
@@ -5154,7 +5154,7 @@
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B81" s="37">
+      <c r="B81" s="38">
         <v>1</v>
       </c>
       <c r="C81" s="1">
@@ -5192,7 +5192,7 @@
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B82" s="38"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="1">
         <f t="shared" si="9"/>
         <v>43221</v>
@@ -5228,7 +5228,7 @@
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
+      <c r="B83" s="39"/>
       <c r="C83" s="1">
         <f t="shared" si="9"/>
         <v>43222</v>
@@ -5273,7 +5273,7 @@
       <c r="A84">
         <v>18</v>
       </c>
-      <c r="B84" s="38"/>
+      <c r="B84" s="39"/>
       <c r="C84" s="1">
         <f t="shared" si="9"/>
         <v>43223</v>
@@ -5315,7 +5315,7 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B85" s="38"/>
+      <c r="B85" s="39"/>
       <c r="C85" s="1">
         <f t="shared" si="9"/>
         <v>43224</v>
@@ -5357,7 +5357,7 @@
       </c>
     </row>
     <row r="86" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="38"/>
+      <c r="B86" s="39"/>
       <c r="C86" s="1">
         <f t="shared" si="9"/>
         <v>43225</v>
@@ -5393,7 +5393,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="39"/>
+      <c r="B87" s="40"/>
       <c r="C87" s="11">
         <f t="shared" si="9"/>
         <v>43226</v>
@@ -5429,7 +5429,7 @@
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B88" s="37">
+      <c r="B88" s="38">
         <v>2</v>
       </c>
       <c r="C88" s="1">
@@ -5467,7 +5467,7 @@
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B89" s="38"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="1">
         <f t="shared" si="9"/>
         <v>43228</v>
@@ -5503,7 +5503,7 @@
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B90" s="38"/>
+      <c r="B90" s="39"/>
       <c r="C90" s="1">
         <f t="shared" si="9"/>
         <v>43229</v>
@@ -5548,7 +5548,7 @@
       <c r="A91">
         <v>19</v>
       </c>
-      <c r="B91" s="38"/>
+      <c r="B91" s="39"/>
       <c r="C91" s="19">
         <f t="shared" si="9"/>
         <v>43230</v>
@@ -5590,7 +5590,7 @@
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B92" s="38"/>
+      <c r="B92" s="39"/>
       <c r="C92" s="19">
         <f t="shared" si="9"/>
         <v>43231</v>
@@ -5632,7 +5632,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B93" s="38"/>
+      <c r="B93" s="39"/>
       <c r="C93" s="1">
         <f t="shared" si="9"/>
         <v>43232</v>
@@ -5668,7 +5668,7 @@
       </c>
     </row>
     <row r="94" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="39"/>
+      <c r="B94" s="40"/>
       <c r="C94" s="11">
         <f t="shared" si="9"/>
         <v>43233</v>
@@ -5704,7 +5704,7 @@
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B95" s="37">
+      <c r="B95" s="38">
         <v>3</v>
       </c>
       <c r="C95" s="1">
@@ -5742,7 +5742,7 @@
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B96" s="38"/>
+      <c r="B96" s="39"/>
       <c r="C96" s="1">
         <f t="shared" si="9"/>
         <v>43235</v>
@@ -5781,7 +5781,7 @@
       <c r="A97">
         <v>20</v>
       </c>
-      <c r="B97" s="38"/>
+      <c r="B97" s="39"/>
       <c r="C97" s="1">
         <f t="shared" si="9"/>
         <v>43236</v>
@@ -5823,7 +5823,7 @@
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B98" s="38"/>
+      <c r="B98" s="39"/>
       <c r="C98" s="1">
         <f t="shared" si="9"/>
         <v>43237</v>
@@ -5865,7 +5865,7 @@
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B99" s="38"/>
+      <c r="B99" s="39"/>
       <c r="C99" s="1">
         <f t="shared" si="9"/>
         <v>43238</v>
@@ -5907,7 +5907,7 @@
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B100" s="38"/>
+      <c r="B100" s="39"/>
       <c r="C100" s="1">
         <f t="shared" si="9"/>
         <v>43239</v>
@@ -5943,7 +5943,7 @@
       </c>
     </row>
     <row r="101" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="39"/>
+      <c r="B101" s="40"/>
       <c r="C101" s="11">
         <f t="shared" si="9"/>
         <v>43240</v>
@@ -5979,7 +5979,7 @@
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B102" s="37">
+      <c r="B102" s="38">
         <v>4</v>
       </c>
       <c r="C102" s="19">
@@ -6021,7 +6021,7 @@
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B103" s="38"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="1">
         <f t="shared" si="9"/>
         <v>43242</v>
@@ -6057,7 +6057,7 @@
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B104" s="38"/>
+      <c r="B104" s="39"/>
       <c r="C104" s="1">
         <f t="shared" si="9"/>
         <v>43243</v>
@@ -6102,7 +6102,7 @@
       <c r="A105">
         <v>21</v>
       </c>
-      <c r="B105" s="38"/>
+      <c r="B105" s="39"/>
       <c r="C105" s="1">
         <f t="shared" si="9"/>
         <v>43244</v>
@@ -6144,7 +6144,7 @@
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="38"/>
+      <c r="B106" s="39"/>
       <c r="C106" s="1">
         <f t="shared" si="9"/>
         <v>43245</v>
@@ -6186,7 +6186,7 @@
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B107" s="38"/>
+      <c r="B107" s="39"/>
       <c r="C107" s="1">
         <f t="shared" si="9"/>
         <v>43246</v>
@@ -6222,7 +6222,7 @@
       </c>
     </row>
     <row r="108" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="39"/>
+      <c r="B108" s="40"/>
       <c r="C108" s="11">
         <f t="shared" si="9"/>
         <v>43247</v>
@@ -6258,7 +6258,7 @@
       </c>
     </row>
     <row r="109" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="37" t="s">
+      <c r="B109" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C109" s="1">
@@ -6296,7 +6296,7 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B110" s="38"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="1">
         <f t="shared" si="9"/>
         <v>43249</v>
@@ -6332,7 +6332,7 @@
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="38"/>
+      <c r="B111" s="39"/>
       <c r="C111" s="1">
         <f t="shared" si="9"/>
         <v>43250</v>
@@ -6377,7 +6377,7 @@
       <c r="A112">
         <v>22</v>
       </c>
-      <c r="B112" s="38"/>
+      <c r="B112" s="39"/>
       <c r="C112" s="1">
         <f t="shared" si="9"/>
         <v>43251</v>
@@ -6419,7 +6419,7 @@
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B113" s="38"/>
+      <c r="B113" s="39"/>
       <c r="C113" s="1">
         <f t="shared" si="9"/>
         <v>43252</v>
@@ -6461,7 +6461,7 @@
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B114" s="38"/>
+      <c r="B114" s="39"/>
       <c r="C114" s="1">
         <f t="shared" si="9"/>
         <v>43253</v>
@@ -6497,7 +6497,7 @@
       </c>
     </row>
     <row r="115" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="39"/>
+      <c r="B115" s="40"/>
       <c r="C115" s="11">
         <f t="shared" si="9"/>
         <v>43254</v>
@@ -6533,7 +6533,7 @@
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B116" s="37">
+      <c r="B116" s="38">
         <v>2</v>
       </c>
       <c r="C116" s="1">
@@ -6571,7 +6571,7 @@
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B117" s="38"/>
+      <c r="B117" s="39"/>
       <c r="C117" s="1">
         <f t="shared" si="9"/>
         <v>43256</v>
@@ -6607,7 +6607,7 @@
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B118" s="38"/>
+      <c r="B118" s="39"/>
       <c r="C118" s="1">
         <f t="shared" si="9"/>
         <v>43257</v>
@@ -6652,7 +6652,7 @@
       <c r="A119">
         <v>23</v>
       </c>
-      <c r="B119" s="38"/>
+      <c r="B119" s="39"/>
       <c r="C119" s="1">
         <f t="shared" si="9"/>
         <v>43258</v>
@@ -6694,7 +6694,7 @@
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B120" s="38"/>
+      <c r="B120" s="39"/>
       <c r="C120" s="1">
         <f t="shared" si="9"/>
         <v>43259</v>
@@ -6736,7 +6736,7 @@
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B121" s="38"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="1">
         <f t="shared" si="9"/>
         <v>43260</v>
@@ -6772,7 +6772,7 @@
       </c>
     </row>
     <row r="122" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="39"/>
+      <c r="B122" s="40"/>
       <c r="C122" s="11">
         <f t="shared" si="9"/>
         <v>43261</v>
@@ -6808,7 +6808,7 @@
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B123" s="37">
+      <c r="B123" s="38">
         <v>3</v>
       </c>
       <c r="C123" s="1">
@@ -6846,7 +6846,7 @@
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B124" s="38"/>
+      <c r="B124" s="39"/>
       <c r="C124" s="1">
         <f t="shared" si="16"/>
         <v>43263</v>
@@ -6882,7 +6882,7 @@
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B125" s="38"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="1">
         <f t="shared" si="16"/>
         <v>43264</v>
@@ -6927,7 +6927,7 @@
       <c r="A126">
         <v>24</v>
       </c>
-      <c r="B126" s="38"/>
+      <c r="B126" s="39"/>
       <c r="C126" s="1">
         <f t="shared" si="16"/>
         <v>43265</v>
@@ -6969,7 +6969,7 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B127" s="38"/>
+      <c r="B127" s="39"/>
       <c r="C127" s="1">
         <f t="shared" si="16"/>
         <v>43266</v>
@@ -7011,7 +7011,7 @@
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B128" s="38"/>
+      <c r="B128" s="39"/>
       <c r="C128" s="1">
         <f t="shared" si="16"/>
         <v>43267</v>
@@ -7047,7 +7047,7 @@
       </c>
     </row>
     <row r="129" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="39"/>
+      <c r="B129" s="40"/>
       <c r="C129" s="11">
         <f t="shared" si="16"/>
         <v>43268</v>
@@ -7083,7 +7083,7 @@
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B130" s="37">
+      <c r="B130" s="38">
         <v>4</v>
       </c>
       <c r="C130" s="1">
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B131" s="38"/>
+      <c r="B131" s="39"/>
       <c r="C131" s="1">
         <f t="shared" si="16"/>
         <v>43270</v>
@@ -7157,7 +7157,7 @@
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B132" s="38"/>
+      <c r="B132" s="39"/>
       <c r="C132" s="1">
         <f t="shared" si="16"/>
         <v>43271</v>
@@ -7202,7 +7202,7 @@
       <c r="A133">
         <v>25</v>
       </c>
-      <c r="B133" s="38"/>
+      <c r="B133" s="39"/>
       <c r="C133" s="1">
         <f t="shared" si="16"/>
         <v>43272</v>
@@ -7244,7 +7244,7 @@
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B134" s="38"/>
+      <c r="B134" s="39"/>
       <c r="C134" s="1">
         <f t="shared" si="16"/>
         <v>43273</v>
@@ -7286,7 +7286,7 @@
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B135" s="38"/>
+      <c r="B135" s="39"/>
       <c r="C135" s="1">
         <f t="shared" si="16"/>
         <v>43274</v>
@@ -7322,7 +7322,7 @@
       </c>
     </row>
     <row r="136" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="39"/>
+      <c r="B136" s="40"/>
       <c r="C136" s="11">
         <f t="shared" si="16"/>
         <v>43275</v>
@@ -7358,7 +7358,7 @@
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B137" s="37">
+      <c r="B137" s="38">
         <v>5</v>
       </c>
       <c r="C137" s="1">
@@ -7396,7 +7396,7 @@
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B138" s="38"/>
+      <c r="B138" s="39"/>
       <c r="C138" s="1">
         <f t="shared" si="16"/>
         <v>43277</v>
@@ -7432,7 +7432,7 @@
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B139" s="38"/>
+      <c r="B139" s="39"/>
       <c r="C139" s="1">
         <f t="shared" si="16"/>
         <v>43278</v>
@@ -7473,7 +7473,7 @@
       <c r="A140">
         <v>26</v>
       </c>
-      <c r="B140" s="38"/>
+      <c r="B140" s="39"/>
       <c r="C140" s="1">
         <f t="shared" si="16"/>
         <v>43279</v>
@@ -7511,7 +7511,7 @@
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B141" s="38"/>
+      <c r="B141" s="39"/>
       <c r="C141" s="1">
         <f t="shared" si="16"/>
         <v>43280</v>
@@ -7551,7 +7551,7 @@
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B142" s="38"/>
+      <c r="B142" s="39"/>
       <c r="C142" s="1">
         <f t="shared" si="16"/>
         <v>43281</v>
@@ -7593,7 +7593,7 @@
       </c>
     </row>
     <row r="143" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="39"/>
+      <c r="B143" s="40"/>
       <c r="C143" s="11">
         <f t="shared" si="16"/>
         <v>43282</v>
@@ -7635,7 +7635,7 @@
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B144" s="37">
+      <c r="B144" s="38">
         <v>1</v>
       </c>
       <c r="C144" s="1">
@@ -7673,7 +7673,7 @@
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B145" s="38"/>
+      <c r="B145" s="39"/>
       <c r="C145" s="1">
         <f t="shared" si="16"/>
         <v>43284</v>
@@ -7709,7 +7709,7 @@
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B146" s="38"/>
+      <c r="B146" s="39"/>
       <c r="C146" s="1">
         <f t="shared" si="16"/>
         <v>43285</v>
@@ -7748,7 +7748,7 @@
       <c r="A147">
         <v>27</v>
       </c>
-      <c r="B147" s="38"/>
+      <c r="B147" s="39"/>
       <c r="C147" s="1">
         <f t="shared" si="16"/>
         <v>43286</v>
@@ -7788,7 +7788,7 @@
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B148" s="38"/>
+      <c r="B148" s="39"/>
       <c r="C148" s="1">
         <f t="shared" si="16"/>
         <v>43287</v>
@@ -7828,7 +7828,7 @@
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B149" s="38"/>
+      <c r="B149" s="39"/>
       <c r="C149" s="1">
         <f t="shared" si="16"/>
         <v>43288</v>
@@ -7868,7 +7868,7 @@
       </c>
     </row>
     <row r="150" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="39"/>
+      <c r="B150" s="40"/>
       <c r="C150" s="11">
         <f t="shared" si="16"/>
         <v>43289</v>
@@ -7908,7 +7908,7 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B151" s="37">
+      <c r="B151" s="38">
         <v>2</v>
       </c>
       <c r="C151" s="1">
@@ -7950,7 +7950,7 @@
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B152" s="38"/>
+      <c r="B152" s="39"/>
       <c r="C152" s="1">
         <f t="shared" si="16"/>
         <v>43291</v>
@@ -7986,7 +7986,7 @@
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B153" s="38"/>
+      <c r="B153" s="39"/>
       <c r="C153" s="1">
         <f t="shared" si="16"/>
         <v>43292</v>
@@ -8025,7 +8025,7 @@
       <c r="A154">
         <v>28</v>
       </c>
-      <c r="B154" s="38"/>
+      <c r="B154" s="39"/>
       <c r="C154" s="1">
         <f t="shared" si="16"/>
         <v>43293</v>
@@ -8067,7 +8067,7 @@
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B155" s="38"/>
+      <c r="B155" s="39"/>
       <c r="C155" s="1">
         <f t="shared" si="16"/>
         <v>43294</v>
@@ -8109,7 +8109,7 @@
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B156" s="38"/>
+      <c r="B156" s="39"/>
       <c r="C156" s="1">
         <f t="shared" si="16"/>
         <v>43295</v>
@@ -8145,7 +8145,7 @@
       </c>
     </row>
     <row r="157" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="39"/>
+      <c r="B157" s="40"/>
       <c r="C157" s="11">
         <f t="shared" si="16"/>
         <v>43296</v>
@@ -8181,7 +8181,7 @@
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B158" s="37">
+      <c r="B158" s="38">
         <v>3</v>
       </c>
       <c r="C158" s="1">
@@ -8219,7 +8219,7 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B159" s="38"/>
+      <c r="B159" s="39"/>
       <c r="C159" s="1">
         <f t="shared" si="16"/>
         <v>43298</v>
@@ -8255,7 +8255,7 @@
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B160" s="38"/>
+      <c r="B160" s="39"/>
       <c r="C160" s="1">
         <f t="shared" si="16"/>
         <v>43299</v>
@@ -8294,7 +8294,7 @@
       <c r="A161">
         <v>29</v>
       </c>
-      <c r="B161" s="38"/>
+      <c r="B161" s="39"/>
       <c r="C161" s="1">
         <f t="shared" si="16"/>
         <v>43300</v>
@@ -8336,7 +8336,7 @@
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B162" s="38"/>
+      <c r="B162" s="39"/>
       <c r="C162" s="1">
         <f t="shared" si="16"/>
         <v>43301</v>
@@ -8378,7 +8378,7 @@
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B163" s="38"/>
+      <c r="B163" s="39"/>
       <c r="C163" s="1">
         <f t="shared" si="16"/>
         <v>43302</v>
@@ -8416,7 +8416,7 @@
       </c>
     </row>
     <row r="164" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B164" s="39"/>
+      <c r="B164" s="40"/>
       <c r="C164" s="11">
         <f t="shared" si="16"/>
         <v>43303</v>
@@ -8452,7 +8452,7 @@
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B165" s="37">
+      <c r="B165" s="38">
         <v>4</v>
       </c>
       <c r="C165" s="1">
@@ -8490,7 +8490,7 @@
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B166" s="38"/>
+      <c r="B166" s="39"/>
       <c r="C166" s="1">
         <f t="shared" si="16"/>
         <v>43305</v>
@@ -8526,7 +8526,7 @@
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B167" s="38"/>
+      <c r="B167" s="39"/>
       <c r="C167" s="1">
         <f t="shared" si="16"/>
         <v>43306</v>
@@ -8565,7 +8565,7 @@
       <c r="A168">
         <v>30</v>
       </c>
-      <c r="B168" s="38"/>
+      <c r="B168" s="39"/>
       <c r="C168" s="1">
         <f t="shared" si="16"/>
         <v>43307</v>
@@ -8607,7 +8607,7 @@
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B169" s="38"/>
+      <c r="B169" s="39"/>
       <c r="C169" s="1">
         <f t="shared" si="16"/>
         <v>43308</v>
@@ -8649,19 +8649,25 @@
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B170" s="38"/>
+      <c r="B170" s="39"/>
       <c r="C170" s="1">
         <f t="shared" si="16"/>
         <v>43309</v>
       </c>
-      <c r="D170" s="8"/>
+      <c r="D170" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
+      <c r="F170" s="4">
+        <v>8</v>
+      </c>
       <c r="G170" s="4"/>
-      <c r="H170" s="6"/>
+      <c r="H170" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J170" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" s="4">
         <f t="shared" si="18"/>
@@ -8677,7 +8683,7 @@
       </c>
       <c r="O170">
         <f t="shared" si="21"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P170">
         <f t="shared" si="22"/>
@@ -8685,7 +8691,7 @@
       </c>
     </row>
     <row r="171" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B171" s="39"/>
+      <c r="B171" s="40"/>
       <c r="C171" s="11">
         <f t="shared" si="16"/>
         <v>43310</v>
@@ -8713,7 +8719,7 @@
       </c>
       <c r="O171">
         <f t="shared" si="21"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P171">
         <f t="shared" si="22"/>
@@ -8721,7 +8727,7 @@
       </c>
     </row>
     <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="37" t="s">
+      <c r="B172" s="38" t="s">
         <v>65</v>
       </c>
       <c r="C172" s="1">
@@ -8751,7 +8757,7 @@
       </c>
       <c r="O172">
         <f t="shared" si="21"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P172">
         <f t="shared" si="22"/>
@@ -8759,7 +8765,7 @@
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B173" s="38"/>
+      <c r="B173" s="39"/>
       <c r="C173" s="1">
         <f t="shared" si="16"/>
         <v>43312</v>
@@ -8787,7 +8793,7 @@
       </c>
       <c r="O173">
         <f t="shared" si="21"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P173">
         <f t="shared" si="22"/>
@@ -8795,7 +8801,7 @@
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B174" s="38"/>
+      <c r="B174" s="39"/>
       <c r="C174" s="1">
         <f t="shared" si="16"/>
         <v>43313</v>
@@ -8823,7 +8829,7 @@
       </c>
       <c r="O174">
         <f t="shared" si="21"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="P174">
         <f t="shared" si="22"/>
@@ -8834,7 +8840,7 @@
       <c r="A175">
         <v>31</v>
       </c>
-      <c r="B175" s="38"/>
+      <c r="B175" s="39"/>
       <c r="C175" s="1">
         <f t="shared" si="16"/>
         <v>43314</v>
@@ -8868,7 +8874,7 @@
       </c>
       <c r="O175">
         <f t="shared" si="21"/>
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P175">
         <f t="shared" si="22"/>
@@ -8876,7 +8882,7 @@
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B176" s="38"/>
+      <c r="B176" s="39"/>
       <c r="C176" s="1">
         <f t="shared" si="16"/>
         <v>43315</v>
@@ -8910,7 +8916,7 @@
       </c>
       <c r="O176">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P176">
         <f t="shared" si="22"/>
@@ -8918,7 +8924,7 @@
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B177" s="38"/>
+      <c r="B177" s="39"/>
       <c r="C177" s="1">
         <f t="shared" si="16"/>
         <v>43316</v>
@@ -8931,10 +8937,12 @@
         <v>8</v>
       </c>
       <c r="G177" s="4"/>
-      <c r="H177" s="6"/>
+      <c r="H177" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J177" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177" s="4">
         <f t="shared" si="18"/>
@@ -8950,7 +8958,7 @@
       </c>
       <c r="O177">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="P177">
         <f t="shared" si="22"/>
@@ -8958,7 +8966,7 @@
       </c>
     </row>
     <row r="178" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B178" s="39"/>
+      <c r="B178" s="40"/>
       <c r="C178" s="11">
         <f t="shared" si="16"/>
         <v>43317</v>
@@ -8971,10 +8979,12 @@
         <v>8</v>
       </c>
       <c r="G178" s="12"/>
-      <c r="H178" s="13"/>
+      <c r="H178" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="J178" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K178" s="12">
         <f t="shared" si="18"/>
@@ -8990,7 +9000,7 @@
       </c>
       <c r="O178">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="P178">
         <f t="shared" si="22"/>
@@ -8998,7 +9008,7 @@
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B179" s="37">
+      <c r="B179" s="38">
         <v>2</v>
       </c>
       <c r="C179" s="1">
@@ -9013,10 +9023,12 @@
         <v>8</v>
       </c>
       <c r="G179" s="9"/>
-      <c r="H179" s="10"/>
+      <c r="H179" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="J179" s="9">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K179" s="9">
         <f t="shared" si="18"/>
@@ -9032,7 +9044,7 @@
       </c>
       <c r="O179">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="P179">
         <f t="shared" si="22"/>
@@ -9040,7 +9052,7 @@
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B180" s="38"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="1">
         <f t="shared" si="16"/>
         <v>43319</v>
@@ -9053,10 +9065,12 @@
         <v>8</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="6"/>
+      <c r="H180" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J180" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" s="4">
         <f t="shared" si="18"/>
@@ -9072,7 +9086,7 @@
       </c>
       <c r="O180">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="P180">
         <f t="shared" si="22"/>
@@ -9080,7 +9094,7 @@
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B181" s="38"/>
+      <c r="B181" s="39"/>
       <c r="C181" s="1">
         <f t="shared" si="16"/>
         <v>43320</v>
@@ -9093,10 +9107,12 @@
         <v>8</v>
       </c>
       <c r="G181" s="4"/>
-      <c r="H181" s="6"/>
+      <c r="H181" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J181" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" s="4">
         <f t="shared" si="18"/>
@@ -9112,7 +9128,7 @@
       </c>
       <c r="O181">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="P181">
         <f t="shared" si="22"/>
@@ -9123,7 +9139,7 @@
       <c r="A182">
         <v>32</v>
       </c>
-      <c r="B182" s="38"/>
+      <c r="B182" s="39"/>
       <c r="C182" s="1">
         <f t="shared" si="16"/>
         <v>43321</v>
@@ -9136,10 +9152,12 @@
         <v>8</v>
       </c>
       <c r="G182" s="4"/>
-      <c r="H182" s="6"/>
+      <c r="H182" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J182" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K182" s="4">
         <f t="shared" si="18"/>
@@ -9155,7 +9173,7 @@
       </c>
       <c r="O182">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="P182">
         <f t="shared" si="22"/>
@@ -9163,7 +9181,7 @@
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="38"/>
+      <c r="B183" s="39"/>
       <c r="C183" s="1">
         <f t="shared" si="16"/>
         <v>43322</v>
@@ -9176,10 +9194,12 @@
         <v>8</v>
       </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="6"/>
+      <c r="H183" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="J183" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K183" s="4">
         <f t="shared" si="18"/>
@@ -9195,7 +9215,7 @@
       </c>
       <c r="O183">
         <f t="shared" si="21"/>
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="P183">
         <f t="shared" si="22"/>
@@ -9203,7 +9223,7 @@
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="38"/>
+      <c r="B184" s="39"/>
       <c r="C184" s="1">
         <f t="shared" si="16"/>
         <v>43323</v>
@@ -9216,10 +9236,12 @@
         <v>8</v>
       </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="6"/>
+      <c r="H184" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="185" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="39"/>
+      <c r="B185" s="40"/>
       <c r="C185" s="11">
         <f t="shared" si="16"/>
         <v>43324</v>
@@ -9232,14 +9254,16 @@
         <v>8</v>
       </c>
       <c r="G185" s="12"/>
-      <c r="H185" s="13"/>
+      <c r="H185" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
       <c r="M185" s="12"/>
       <c r="N185" s="12"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B186" s="37">
+      <c r="B186" s="38">
         <v>3</v>
       </c>
       <c r="C186" s="1">
@@ -9254,59 +9278,55 @@
         <v>8</v>
       </c>
       <c r="G186" s="9"/>
-      <c r="H186" s="10"/>
+      <c r="H186" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="J186" s="9"/>
       <c r="K186" s="9"/>
       <c r="M186" s="9"/>
       <c r="N186" s="9"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B187" s="38"/>
+      <c r="B187" s="39"/>
       <c r="C187" s="1">
         <f t="shared" ref="C187:C192" si="23">C186+1</f>
         <v>43326</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E187" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="F187" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G187" s="4"/>
-      <c r="H187" s="6"/>
+      <c r="H187" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="O187">
         <f>O183+P183</f>
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B188" s="38"/>
+      <c r="B188" s="39"/>
       <c r="C188" s="1">
         <f t="shared" si="23"/>
         <v>43327</v>
       </c>
-      <c r="D188" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E188" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F188" s="4">
-        <v>2</v>
-      </c>
-      <c r="G188" s="4">
-        <v>2</v>
-      </c>
-      <c r="H188" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D188" s="4"/>
+      <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
+      <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>33</v>
       </c>
-      <c r="B189" s="38"/>
+      <c r="B189" s="39"/>
       <c r="C189" s="1">
         <f t="shared" si="23"/>
         <v>43328</v>
@@ -9318,7 +9338,7 @@
       <c r="H189" s="6"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B190" s="38"/>
+      <c r="B190" s="39"/>
       <c r="C190" s="1">
         <f t="shared" si="23"/>
         <v>43329</v>
@@ -9330,7 +9350,7 @@
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B191" s="38"/>
+      <c r="B191" s="39"/>
       <c r="C191" s="1">
         <f t="shared" si="23"/>
         <v>43330</v>
@@ -9342,7 +9362,7 @@
       <c r="H191" s="6"/>
     </row>
     <row r="192" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B192" s="39"/>
+      <c r="B192" s="40"/>
       <c r="C192" s="11">
         <f t="shared" si="23"/>
         <v>43331</v>
@@ -9381,13 +9401,15 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B39:B45"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B11:B17"/>
-    <mergeCell ref="B18:B24"/>
-    <mergeCell ref="B25:B31"/>
-    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="B172:B178"/>
+    <mergeCell ref="B179:B185"/>
+    <mergeCell ref="B186:B192"/>
+    <mergeCell ref="B130:B136"/>
+    <mergeCell ref="B137:B143"/>
+    <mergeCell ref="B144:B150"/>
+    <mergeCell ref="B151:B157"/>
+    <mergeCell ref="B158:B164"/>
+    <mergeCell ref="B165:B171"/>
     <mergeCell ref="B123:B129"/>
     <mergeCell ref="B46:B52"/>
     <mergeCell ref="B53:B59"/>
@@ -9400,15 +9422,13 @@
     <mergeCell ref="B102:B108"/>
     <mergeCell ref="B109:B115"/>
     <mergeCell ref="B116:B122"/>
-    <mergeCell ref="B172:B178"/>
-    <mergeCell ref="B179:B185"/>
-    <mergeCell ref="B186:B192"/>
-    <mergeCell ref="B130:B136"/>
-    <mergeCell ref="B137:B143"/>
-    <mergeCell ref="B144:B150"/>
-    <mergeCell ref="B151:B157"/>
-    <mergeCell ref="B158:B164"/>
-    <mergeCell ref="B165:B171"/>
+    <mergeCell ref="B39:B45"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B17"/>
+    <mergeCell ref="B18:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B38"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 E21:E22 D4:D6 D1103:D1048576 D9:E20 D23:D64 D67:D157">
     <cfRule type="cellIs" dxfId="120" priority="116" operator="equal">
@@ -9765,212 +9785,212 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="40" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186:E192">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186:E192">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E186:E192">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="25" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="24" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="22" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10010,52 +10030,52 @@
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="41" t="s">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="41" t="s">
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="41" t="s">
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="41" t="s">
+      <c r="Q1" s="45"/>
+      <c r="R1" s="45"/>
+      <c r="S1" s="45"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="42"/>
-      <c r="W1" s="42"/>
-      <c r="X1" s="42"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="41" t="s">
+      <c r="V1" s="45"/>
+      <c r="W1" s="45"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="42"/>
-      <c r="AB1" s="42"/>
-      <c r="AC1" s="42"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="41" t="s">
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="45"/>
+      <c r="AD1" s="46"/>
+      <c r="AE1" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="AF1" s="42"/>
-      <c r="AG1" s="42"/>
+      <c r="AF1" s="45"/>
+      <c r="AG1" s="45"/>
     </row>
     <row r="2" spans="1:33" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -11333,37 +11353,37 @@
     <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="B33:AG33">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD5">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD9">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:XFD15">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:XFD18">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD26">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD31">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>2 BBBlue EEROS Anwendungen, ControlSystemDiagramm</t>
+  </si>
+  <si>
+    <t>2 ControlSystemDiagramm, SequencerDiagramm</t>
   </si>
 </sst>
 </file>
@@ -6618,8 +6621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10006,7 +10009,9 @@
       <c r="D85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="F85" s="4">
         <v>10</v>
       </c>

--- a/Zeitplan.xlsx
+++ b/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="89">
   <si>
     <t>Datum</t>
   </si>
@@ -265,6 +265,30 @@
   </si>
   <si>
     <t>2 ControlSystemDiagramm, SequencerDiagramm</t>
+  </si>
+  <si>
+    <t>2 BBBlue RT-Kernel</t>
+  </si>
+  <si>
+    <t>2 BBBlue RT-Kernel Messungen</t>
+  </si>
+  <si>
+    <t>2 Sequencer Diagramm</t>
+  </si>
+  <si>
+    <t>Crate DB workshop</t>
+  </si>
+  <si>
+    <t>IoT workshop</t>
+  </si>
+  <si>
+    <t>2 Codeübernahme BBBlue</t>
+  </si>
+  <si>
+    <t>2 Codeübernahme BBBlue, Anpassen ControlSystem</t>
+  </si>
+  <si>
+    <t>2 Codeübernahme BBBlue, Probleme mit BBBlue</t>
   </si>
 </sst>
 </file>
@@ -580,7 +604,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="624">
+  <dxfs count="120">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -592,6 +616,59 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF92D050"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF7030A0"/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
@@ -600,8 +677,18 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor rgb="FF7030A0"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -617,8 +704,18 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -634,6 +731,124 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
         </patternFill>
@@ -657,6 +872,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -1478,4863 +1700,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF92D050"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF7030A0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6621,8 +1986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G156" sqref="G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6685,11 +2050,11 @@
       <c r="G3" s="4"/>
       <c r="H3" s="6"/>
       <c r="J3" s="4">
-        <f>COUNTIF(H3,"n")</f>
+        <f>COUNTIF(H3,"n")+COUNTIF(H3,"b")</f>
         <v>0</v>
       </c>
       <c r="K3" s="4">
-        <f>COUNTIF(H3,"j")</f>
+        <f>COUNTIF(H3,"j")+COUNTIF(H3,"b")</f>
         <v>0</v>
       </c>
       <c r="M3" s="4">
@@ -6721,11 +2086,11 @@
       <c r="G4" s="4"/>
       <c r="H4" s="6"/>
       <c r="J4" s="4">
-        <f t="shared" ref="J4:J67" si="1">COUNTIF(H4,"n")</f>
+        <f t="shared" ref="J4:J67" si="1">COUNTIF(H4,"n")+COUNTIF(H4,"b")</f>
         <v>0</v>
       </c>
       <c r="K4" s="4">
-        <f t="shared" ref="K4:K67" si="2">COUNTIF(H4,"j")</f>
+        <f t="shared" ref="K4:K67" si="2">COUNTIF(H4,"j")+COUNTIF(H4,"b")</f>
         <v>0</v>
       </c>
       <c r="M4" s="4">
@@ -8945,11 +4310,11 @@
       <c r="F59" s="12"/>
       <c r="G59" s="12"/>
       <c r="H59" s="13"/>
-      <c r="J59" s="12">
+      <c r="J59" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K59" s="12">
+      <c r="K59" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8983,11 +4348,11 @@
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
       <c r="H60" s="10"/>
-      <c r="J60" s="9">
+      <c r="J60" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K60" s="9">
+      <c r="K60" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9232,11 +4597,11 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="24"/>
-      <c r="J66" s="23">
+      <c r="J66" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K66" s="23">
+      <c r="K66" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9270,11 +4635,11 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="10"/>
-      <c r="J67" s="9">
+      <c r="J67" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K67" s="9">
+      <c r="K67" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -9307,11 +4672,11 @@
       <c r="G68" s="4"/>
       <c r="H68" s="6"/>
       <c r="J68" s="4">
-        <f t="shared" ref="J68:J131" si="10">COUNTIF(H68,"n")</f>
+        <f t="shared" ref="J68:J131" si="10">COUNTIF(H68,"n")+COUNTIF(H68,"b")</f>
         <v>0</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" ref="K68:K131" si="11">COUNTIF(H68,"j")</f>
+        <f t="shared" ref="K68:K131" si="11">COUNTIF(H68,"j")+COUNTIF(H68,"b")</f>
         <v>0</v>
       </c>
       <c r="M68" s="4">
@@ -10199,11 +5564,15 @@
       <c r="D90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F90" s="4">
         <v>3</v>
       </c>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4">
+        <v>3</v>
+      </c>
       <c r="H90" s="6" t="s">
         <v>9</v>
       </c>
@@ -10221,7 +5590,7 @@
       </c>
       <c r="N90" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O90">
         <f t="shared" si="14"/>
@@ -10244,11 +5613,15 @@
       <c r="D91" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F91" s="4">
         <v>10</v>
       </c>
-      <c r="G91" s="4"/>
+      <c r="G91" s="4">
+        <v>10</v>
+      </c>
       <c r="H91" s="6" t="s">
         <v>16</v>
       </c>
@@ -10262,11 +5635,11 @@
       </c>
       <c r="M91" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N91" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O91">
         <f t="shared" si="14"/>
@@ -10286,11 +5659,15 @@
       <c r="D92" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E92" s="4"/>
+      <c r="E92" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F92" s="4">
         <v>10</v>
       </c>
-      <c r="G92" s="4"/>
+      <c r="G92" s="4">
+        <v>10</v>
+      </c>
       <c r="H92" s="6" t="s">
         <v>16</v>
       </c>
@@ -10304,11 +5681,11 @@
       </c>
       <c r="M92" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="N92" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O92">
         <f t="shared" si="14"/>
@@ -10340,11 +5717,11 @@
       </c>
       <c r="M93" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="N93" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O93">
         <f t="shared" si="14"/>
@@ -10376,11 +5753,11 @@
       </c>
       <c r="M94" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="N94" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O94">
         <f t="shared" si="14"/>
@@ -10400,13 +5777,19 @@
         <v>43234</v>
       </c>
       <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+      <c r="E95" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
+      <c r="G95" s="9">
+        <v>10</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="J95" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" s="4">
         <f t="shared" si="11"/>
@@ -10414,11 +5797,11 @@
       </c>
       <c r="M95" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="N95" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O95">
         <f t="shared" si="14"/>
@@ -10436,13 +5819,19 @@
         <v>43235</v>
       </c>
       <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="6"/>
+      <c r="G96" s="4">
+        <v>10</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J96" s="4">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K96" s="4">
         <f t="shared" si="11"/>
@@ -10450,11 +5839,11 @@
       </c>
       <c r="M96" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N96" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O96">
         <f t="shared" si="14"/>
@@ -10477,11 +5866,15 @@
       <c r="D97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="4"/>
+      <c r="E97" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F97" s="4">
         <v>3</v>
       </c>
-      <c r="G97" s="4"/>
+      <c r="G97" s="4">
+        <v>3</v>
+      </c>
       <c r="H97" s="6" t="s">
         <v>9</v>
       </c>
@@ -10495,11 +5888,11 @@
       </c>
       <c r="M97" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N97" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O97">
         <f t="shared" si="14"/>
@@ -10519,7 +5912,6 @@
       <c r="D98" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="4"/>
       <c r="F98" s="4">
         <v>10</v>
       </c>
@@ -10537,11 +5929,11 @@
       </c>
       <c r="M98" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N98" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O98">
         <f t="shared" si="14"/>
@@ -10561,7 +5953,6 @@
       <c r="D99" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E99" s="4"/>
       <c r="F99" s="4">
         <v>10</v>
       </c>
@@ -10579,11 +5970,11 @@
       </c>
       <c r="M99" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N99" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O99">
         <f t="shared" si="14"/>
@@ -10615,11 +6006,11 @@
       </c>
       <c r="M100" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N100" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O100">
         <f t="shared" si="14"/>
@@ -10651,11 +6042,11 @@
       </c>
       <c r="M101" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N101" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O101">
         <f t="shared" si="14"/>
@@ -10693,11 +6084,11 @@
       </c>
       <c r="M102" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N102" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O102">
         <f t="shared" si="14"/>
@@ -10729,11 +6120,11 @@
       </c>
       <c r="M103" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N103" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="O103">
         <f t="shared" si="14"/>
@@ -10753,11 +6144,15 @@
       <c r="D104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E104" s="4"/>
+      <c r="E104" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F104" s="4">
         <v>3</v>
       </c>
-      <c r="G104" s="4"/>
+      <c r="G104" s="4">
+        <v>3</v>
+      </c>
       <c r="H104" s="6" t="s">
         <v>9</v>
       </c>
@@ -10771,11 +6166,11 @@
       </c>
       <c r="M104" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="N104" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O104">
         <f t="shared" si="14"/>
@@ -10798,11 +6193,15 @@
       <c r="D105" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E105" s="4"/>
+      <c r="E105" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F105" s="4">
         <v>10</v>
       </c>
-      <c r="G105" s="4"/>
+      <c r="G105" s="4">
+        <v>8</v>
+      </c>
       <c r="H105" s="6" t="s">
         <v>16</v>
       </c>
@@ -10816,11 +6215,11 @@
       </c>
       <c r="M105" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="N105" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O105">
         <f t="shared" si="14"/>
@@ -10840,11 +6239,15 @@
       <c r="D106" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="F106" s="4">
         <v>10</v>
       </c>
-      <c r="G106" s="4"/>
+      <c r="G106" s="4">
+        <v>8</v>
+      </c>
       <c r="H106" s="6" t="s">
         <v>16</v>
       </c>
@@ -10858,11 +6261,11 @@
       </c>
       <c r="M106" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N106" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O106">
         <f t="shared" si="14"/>
@@ -10894,11 +6297,11 @@
       </c>
       <c r="M107" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N107" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O107">
         <f t="shared" si="14"/>
@@ -10930,11 +6333,11 @@
       </c>
       <c r="M108" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N108" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O108">
         <f t="shared" si="14"/>
@@ -10968,11 +6371,11 @@
       </c>
       <c r="M109" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N109" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O109">
         <f t="shared" si="14"/>
@@ -11004,11 +6407,11 @@
       </c>
       <c r="M110" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N110" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="O110">
         <f t="shared" si="14"/>
@@ -11028,11 +6431,15 @@
       <c r="D111" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F111" s="4">
         <v>3</v>
       </c>
-      <c r="G111" s="4"/>
+      <c r="G111" s="4">
+        <v>3</v>
+      </c>
       <c r="H111" s="6" t="s">
         <v>9</v>
       </c>
@@ -11046,11 +6453,11 @@
       </c>
       <c r="M111" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N111" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O111">
         <f t="shared" si="14"/>
@@ -11091,11 +6498,11 @@
       </c>
       <c r="M112" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N112" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O112">
         <f t="shared" si="14"/>
@@ -11133,11 +6540,11 @@
       </c>
       <c r="M113" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N113" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O113">
         <f t="shared" si="14"/>
@@ -11169,11 +6576,11 @@
       </c>
       <c r="M114" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N114" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O114">
         <f t="shared" si="14"/>
@@ -11205,11 +6612,11 @@
       </c>
       <c r="M115" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N115" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O115">
         <f t="shared" si="14"/>
@@ -11243,11 +6650,11 @@
       </c>
       <c r="M116" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N116" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O116">
         <f t="shared" si="14"/>
@@ -11279,11 +6686,11 @@
       </c>
       <c r="M117" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N117" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="O117">
         <f t="shared" si="14"/>
@@ -11303,11 +6710,15 @@
       <c r="D118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E118" s="4"/>
+      <c r="E118" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F118" s="4">
         <v>3</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4">
+        <v>3</v>
+      </c>
       <c r="H118" s="6" t="s">
         <v>9</v>
       </c>
@@ -11321,11 +6732,11 @@
       </c>
       <c r="M118" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N118" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O118">
         <f t="shared" si="14"/>
@@ -11366,11 +6777,11 @@
       </c>
       <c r="M119" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N119" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O119">
         <f t="shared" si="14"/>
@@ -11408,11 +6819,11 @@
       </c>
       <c r="M120" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N120" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O120">
         <f t="shared" si="14"/>
@@ -11444,11 +6855,11 @@
       </c>
       <c r="M121" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N121" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O121">
         <f t="shared" si="14"/>
@@ -11480,11 +6891,11 @@
       </c>
       <c r="M122" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N122" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O122">
         <f t="shared" si="14"/>
@@ -11518,11 +6929,11 @@
       </c>
       <c r="M123" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N123" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O123">
         <f t="shared" si="14"/>
@@ -11554,11 +6965,11 @@
       </c>
       <c r="M124" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N124" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="O124">
         <f t="shared" si="14"/>
@@ -11578,11 +6989,15 @@
       <c r="D125" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E125" s="4"/>
+      <c r="E125" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="F125" s="4">
         <v>4</v>
       </c>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4">
+        <v>4</v>
+      </c>
       <c r="H125" s="6" t="s">
         <v>9</v>
       </c>
@@ -11596,11 +7011,11 @@
       </c>
       <c r="M125" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="N125" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O125">
         <f t="shared" si="14"/>
@@ -11623,11 +7038,15 @@
       <c r="D126" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E126" s="4"/>
+      <c r="E126" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="F126" s="4">
         <v>10</v>
       </c>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4">
+        <v>8</v>
+      </c>
       <c r="H126" s="6" t="s">
         <v>16</v>
       </c>
@@ -11641,11 +7060,11 @@
       </c>
       <c r="M126" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N126" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O126">
         <f t="shared" si="14"/>
@@ -11683,11 +7102,11 @@
       </c>
       <c r="M127" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N127" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O127">
         <f t="shared" si="14"/>
@@ -11719,11 +7138,11 @@
       </c>
       <c r="M128" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N128" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O128">
         <f t="shared" si="14"/>
@@ -11755,11 +7174,11 @@
       </c>
       <c r="M129" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N129" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O129">
         <f t="shared" si="14"/>
@@ -11793,11 +7212,11 @@
       </c>
       <c r="M130" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N130" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O130">
         <f t="shared" si="14"/>
@@ -11829,11 +7248,11 @@
       </c>
       <c r="M131" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N131" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O131">
         <f t="shared" si="14"/>
@@ -11862,20 +7281,20 @@
         <v>9</v>
       </c>
       <c r="J132" s="4">
-        <f t="shared" ref="J132:J183" si="17">COUNTIF(H132,"n")</f>
+        <f t="shared" ref="J132:J192" si="17">COUNTIF(H132,"n")+COUNTIF(H132,"b")</f>
         <v>0</v>
       </c>
       <c r="K132" s="4">
-        <f t="shared" ref="K132:K183" si="18">COUNTIF(H132,"j")</f>
+        <f t="shared" ref="K132:K192" si="18">COUNTIF(H132,"j")+COUNTIF(H132,"b")</f>
         <v>1</v>
       </c>
       <c r="M132" s="4">
         <f t="shared" si="12"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N132" s="4">
         <f t="shared" si="13"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O132">
         <f t="shared" si="14"/>
@@ -11915,19 +7334,19 @@
         <v>0</v>
       </c>
       <c r="M133" s="4">
-        <f t="shared" ref="M133:M183" si="19">M132+J133*G133</f>
-        <v>105</v>
+        <f t="shared" ref="M133:M187" si="19">M132+J133*G133</f>
+        <v>169</v>
       </c>
       <c r="N133" s="4">
-        <f t="shared" ref="N133:N183" si="20">N132+K133*G133</f>
-        <v>71</v>
+        <f t="shared" ref="N133:N187" si="20">N132+K133*G133</f>
+        <v>90</v>
       </c>
       <c r="O133">
-        <f t="shared" ref="O133:O183" si="21">O132+J133*F133</f>
+        <f t="shared" ref="O133:O187" si="21">O132+J133*F133</f>
         <v>264</v>
       </c>
       <c r="P133">
-        <f t="shared" ref="P133:P183" si="22">P132+K133*F133</f>
+        <f t="shared" ref="P133:P187" si="22">P132+K133*F133</f>
         <v>93</v>
       </c>
     </row>
@@ -11958,11 +7377,11 @@
       </c>
       <c r="M134" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N134" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O134">
         <f t="shared" si="21"/>
@@ -11994,11 +7413,11 @@
       </c>
       <c r="M135" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N135" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O135">
         <f t="shared" si="21"/>
@@ -12030,11 +7449,11 @@
       </c>
       <c r="M136" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N136" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O136">
         <f t="shared" si="21"/>
@@ -12068,11 +7487,11 @@
       </c>
       <c r="M137" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N137" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O137">
         <f t="shared" si="21"/>
@@ -12104,11 +7523,11 @@
       </c>
       <c r="M138" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N138" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O138">
         <f t="shared" si="21"/>
@@ -12142,11 +7561,11 @@
       </c>
       <c r="M139" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N139" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O139">
         <f t="shared" si="21"/>
@@ -12183,11 +7602,11 @@
       </c>
       <c r="M140" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N140" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O140">
         <f t="shared" si="21"/>
@@ -12223,11 +7642,11 @@
       </c>
       <c r="M141" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N141" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O141">
         <f t="shared" si="21"/>
@@ -12265,11 +7684,11 @@
       </c>
       <c r="M142" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N142" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O142">
         <f t="shared" si="21"/>
@@ -12307,11 +7726,11 @@
       </c>
       <c r="M143" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N143" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O143">
         <f t="shared" si="21"/>
@@ -12345,11 +7764,11 @@
       </c>
       <c r="M144" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N144" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O144">
         <f t="shared" si="21"/>
@@ -12366,8 +7785,12 @@
         <f t="shared" si="16"/>
         <v>43284</v>
       </c>
-      <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E145" s="4">
+        <v>1</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
       <c r="H145" s="6"/>
@@ -12381,11 +7804,11 @@
       </c>
       <c r="M145" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N145" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O145">
         <f t="shared" si="21"/>
@@ -12402,8 +7825,12 @@
         <f t="shared" si="16"/>
         <v>43285</v>
       </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="4"/>
+      <c r="D146" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E146" s="4">
+        <v>1</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
       <c r="H146" s="6"/>
@@ -12417,11 +7844,11 @@
       </c>
       <c r="M146" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N146" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O146">
         <f t="shared" si="21"/>
@@ -12460,11 +7887,11 @@
       </c>
       <c r="M147" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N147" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O147">
         <f t="shared" si="21"/>
@@ -12500,11 +7927,11 @@
       </c>
       <c r="M148" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N148" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O148">
         <f t="shared" si="21"/>
@@ -12540,11 +7967,11 @@
       </c>
       <c r="M149" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N149" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O149">
         <f t="shared" si="21"/>
@@ -12580,11 +8007,11 @@
       </c>
       <c r="M150" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N150" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O150">
         <f t="shared" si="21"/>
@@ -12622,11 +8049,11 @@
       </c>
       <c r="M151" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N151" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O151">
         <f t="shared" si="21"/>
@@ -12643,8 +8070,12 @@
         <f t="shared" si="16"/>
         <v>43291</v>
       </c>
-      <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
       <c r="H152" s="6"/>
@@ -12658,11 +8089,11 @@
       </c>
       <c r="M152" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N152" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O152">
         <f t="shared" si="21"/>
@@ -12679,8 +8110,12 @@
         <f t="shared" si="16"/>
         <v>43292</v>
       </c>
-      <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E153" s="4">
+        <v>1</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
       <c r="H153" s="6"/>
@@ -12694,11 +8129,11 @@
       </c>
       <c r="M153" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="N153" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O153">
         <f t="shared" si="21"/>
@@ -12725,7 +8160,9 @@
       <c r="F154" s="4">
         <v>10</v>
       </c>
-      <c r="G154" s="4"/>
+      <c r="G154" s="4">
+        <v>8</v>
+      </c>
       <c r="H154" s="6" t="s">
         <v>16</v>
       </c>
@@ -12739,11 +8176,11 @@
       </c>
       <c r="M154" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>177</v>
       </c>
       <c r="N154" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O154">
         <f t="shared" si="21"/>
@@ -12767,7 +8204,9 @@
       <c r="F155" s="4">
         <v>8</v>
       </c>
-      <c r="G155" s="4"/>
+      <c r="G155" s="4">
+        <v>8</v>
+      </c>
       <c r="H155" s="6" t="s">
         <v>16</v>
       </c>
@@ -12781,11 +8220,11 @@
       </c>
       <c r="M155" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="N155" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O155">
         <f t="shared" si="21"/>
@@ -12817,11 +8256,11 @@
       </c>
       <c r="M156" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="N156" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O156">
         <f t="shared" si="21"/>
@@ -12843,21 +8282,21 @@
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="13"/>
-      <c r="J157" s="12">
+      <c r="J157" s="4">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K157" s="12">
+      <c r="K157" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M157" s="12">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="N157" s="12">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O157">
         <f t="shared" si="21"/>
@@ -12877,25 +8316,31 @@
         <v>43297</v>
       </c>
       <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="E158" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="10"/>
-      <c r="J158" s="9">
+      <c r="G158" s="9">
+        <v>8</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J158" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K158" s="9">
+        <v>1</v>
+      </c>
+      <c r="K158" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M158" s="9">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>193</v>
       </c>
       <c r="N158" s="9">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O158">
         <f t="shared" si="21"/>
@@ -12913,13 +8358,19 @@
         <v>43298</v>
       </c>
       <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="E159" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="6"/>
+      <c r="G159" s="4">
+        <v>8</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J159" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K159" s="4">
         <f t="shared" si="18"/>
@@ -12927,11 +8378,11 @@
       </c>
       <c r="M159" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>201</v>
       </c>
       <c r="N159" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O159">
         <f t="shared" si="21"/>
@@ -12949,13 +8400,19 @@
         <v>43299</v>
       </c>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F160" s="4"/>
-      <c r="G160" s="4"/>
-      <c r="H160" s="6"/>
+      <c r="G160" s="4">
+        <v>10</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J160" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K160" s="4">
         <f t="shared" si="18"/>
@@ -12963,11 +8420,11 @@
       </c>
       <c r="M160" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>211</v>
       </c>
       <c r="N160" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O160">
         <f t="shared" si="21"/>
@@ -12990,11 +8447,15 @@
       <c r="D161" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E161" s="4"/>
+      <c r="E161" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F161" s="4">
         <v>8</v>
       </c>
-      <c r="G161" s="4"/>
+      <c r="G161" s="4">
+        <v>10</v>
+      </c>
       <c r="H161" s="6" t="s">
         <v>16</v>
       </c>
@@ -13008,11 +8469,11 @@
       </c>
       <c r="M161" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="N161" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O161">
         <f t="shared" si="21"/>
@@ -13032,11 +8493,15 @@
       <c r="D162" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E162" s="4"/>
+      <c r="E162" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="F162" s="4">
         <v>8</v>
       </c>
-      <c r="G162" s="4"/>
+      <c r="G162" s="4">
+        <v>12</v>
+      </c>
       <c r="H162" s="6" t="s">
         <v>16</v>
       </c>
@@ -13050,11 +8515,11 @@
       </c>
       <c r="M162" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="N162" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O162">
         <f t="shared" si="21"/>
@@ -13088,11 +8553,11 @@
       </c>
       <c r="M163" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="N163" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O163">
         <f t="shared" si="21"/>
@@ -13114,21 +8579,21 @@
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="13"/>
-      <c r="J164" s="12">
+      <c r="J164" s="4">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K164" s="12">
+      <c r="K164" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M164" s="12">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="N164" s="12">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O164">
         <f t="shared" si="21"/>
@@ -13148,25 +8613,31 @@
         <v>43304</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="E165" s="9"/>
+      <c r="E165" s="9" t="s">
+        <v>86</v>
+      </c>
       <c r="F165" s="9"/>
-      <c r="G165" s="9"/>
-      <c r="H165" s="10"/>
-      <c r="J165" s="9">
+      <c r="G165" s="9">
+        <v>10</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K165" s="9">
+        <v>1</v>
+      </c>
+      <c r="K165" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M165" s="9">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="N165" s="9">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O165">
         <f t="shared" si="21"/>
@@ -13184,13 +8655,19 @@
         <v>43305</v>
       </c>
       <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
+      <c r="E166" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="6"/>
+      <c r="G166" s="4">
+        <v>10</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J166" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166" s="4">
         <f t="shared" si="18"/>
@@ -13198,11 +8675,11 @@
       </c>
       <c r="M166" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="N166" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O166">
         <f t="shared" si="21"/>
@@ -13220,13 +8697,19 @@
         <v>43306</v>
       </c>
       <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
+      <c r="E167" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="6"/>
+      <c r="G167" s="4">
+        <v>10</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J167" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" s="4">
         <f t="shared" si="18"/>
@@ -13234,11 +8717,11 @@
       </c>
       <c r="M167" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>263</v>
       </c>
       <c r="N167" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O167">
         <f t="shared" si="21"/>
@@ -13258,14 +8741,18 @@
         <f t="shared" si="16"/>
         <v>43307</v>
       </c>
-      <c r="D168" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="F168" s="4">
         <v>8</v>
       </c>
-      <c r="G168" s="4"/>
+      <c r="G168" s="4">
+        <v>10</v>
+      </c>
       <c r="H168" s="6" t="s">
         <v>16</v>
       </c>
@@ -13279,11 +8766,11 @@
       </c>
       <c r="M168" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>273</v>
       </c>
       <c r="N168" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O168">
         <f t="shared" si="21"/>
@@ -13300,14 +8787,18 @@
         <f t="shared" si="16"/>
         <v>43308</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E169" s="4"/>
+      <c r="D169" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="F169" s="4">
         <v>8</v>
       </c>
-      <c r="G169" s="4"/>
+      <c r="G169" s="4">
+        <v>8</v>
+      </c>
       <c r="H169" s="6" t="s">
         <v>16</v>
       </c>
@@ -13321,11 +8812,11 @@
       </c>
       <c r="M169" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="N169" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O169">
         <f t="shared" si="21"/>
@@ -13342,8 +8833,8 @@
         <f t="shared" si="16"/>
         <v>43309</v>
       </c>
-      <c r="D170" s="8" t="s">
-        <v>44</v>
+      <c r="D170" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4">
@@ -13363,11 +8854,11 @@
       </c>
       <c r="M170" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="N170" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O170">
         <f t="shared" si="21"/>
@@ -13389,21 +8880,21 @@
       <c r="F171" s="12"/>
       <c r="G171" s="12"/>
       <c r="H171" s="13"/>
-      <c r="J171" s="12">
+      <c r="J171" s="4">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="K171" s="12">
+      <c r="K171" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M171" s="12">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>281</v>
       </c>
       <c r="N171" s="12">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O171">
         <f t="shared" si="21"/>
@@ -13425,23 +8916,27 @@
       <c r="D172" s="9"/>
       <c r="E172" s="9"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="9"/>
-      <c r="H172" s="10"/>
-      <c r="J172" s="9">
+      <c r="G172" s="9">
+        <v>8</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J172" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K172" s="9">
+        <v>1</v>
+      </c>
+      <c r="K172" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M172" s="9">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>289</v>
       </c>
       <c r="N172" s="9">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O172">
         <f t="shared" si="21"/>
@@ -13461,11 +8956,15 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="6"/>
+      <c r="G173" s="4">
+        <v>8</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J173" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K173" s="4">
         <f t="shared" si="18"/>
@@ -13473,11 +8972,11 @@
       </c>
       <c r="M173" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="N173" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O173">
         <f t="shared" si="21"/>
@@ -13497,11 +8996,15 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="6"/>
+      <c r="G174" s="4">
+        <v>8</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="J174" s="4">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K174" s="4">
         <f t="shared" si="18"/>
@@ -13509,11 +9012,11 @@
       </c>
       <c r="M174" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="N174" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O174">
         <f t="shared" si="21"/>
@@ -13533,14 +9036,16 @@
         <f t="shared" si="16"/>
         <v>43314</v>
       </c>
-      <c r="D175" s="8" t="s">
-        <v>44</v>
+      <c r="D175" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4">
         <v>8</v>
       </c>
-      <c r="G175" s="4"/>
+      <c r="G175" s="4">
+        <v>8</v>
+      </c>
       <c r="H175" s="6" t="s">
         <v>16</v>
       </c>
@@ -13554,11 +9059,11 @@
       </c>
       <c r="M175" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="N175" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O175">
         <f t="shared" si="21"/>
@@ -13575,14 +9080,16 @@
         <f t="shared" si="16"/>
         <v>43315</v>
       </c>
-      <c r="D176" s="8" t="s">
-        <v>44</v>
+      <c r="D176" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4">
         <v>8</v>
       </c>
-      <c r="G176" s="4"/>
+      <c r="G176" s="4">
+        <v>8</v>
+      </c>
       <c r="H176" s="6" t="s">
         <v>16</v>
       </c>
@@ -13596,11 +9103,11 @@
       </c>
       <c r="M176" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>321</v>
       </c>
       <c r="N176" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O176">
         <f t="shared" si="21"/>
@@ -13617,14 +9124,16 @@
         <f t="shared" si="16"/>
         <v>43316</v>
       </c>
-      <c r="D177" s="8" t="s">
-        <v>44</v>
+      <c r="D177" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4">
         <v>8</v>
       </c>
-      <c r="G177" s="4"/>
+      <c r="G177" s="4">
+        <v>8</v>
+      </c>
       <c r="H177" s="6" t="s">
         <v>16</v>
       </c>
@@ -13638,11 +9147,11 @@
       </c>
       <c r="M177" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="N177" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O177">
         <f t="shared" si="21"/>
@@ -13666,25 +9175,27 @@
       <c r="F178" s="12">
         <v>8</v>
       </c>
-      <c r="G178" s="12"/>
+      <c r="G178" s="12">
+        <v>8</v>
+      </c>
       <c r="H178" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J178" s="12">
+      <c r="J178" s="4">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K178" s="12">
+      <c r="K178" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M178" s="12">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>337</v>
       </c>
       <c r="N178" s="12">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O178">
         <f t="shared" si="21"/>
@@ -13710,25 +9221,27 @@
       <c r="F179" s="9">
         <v>8</v>
       </c>
-      <c r="G179" s="9"/>
+      <c r="G179" s="9">
+        <v>8</v>
+      </c>
       <c r="H179" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J179" s="9">
+      <c r="J179" s="4">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="K179" s="9">
+      <c r="K179" s="4">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M179" s="9">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>345</v>
       </c>
       <c r="N179" s="9">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O179">
         <f t="shared" si="21"/>
@@ -13752,7 +9265,9 @@
       <c r="F180" s="4">
         <v>8</v>
       </c>
-      <c r="G180" s="4"/>
+      <c r="G180" s="4">
+        <v>8</v>
+      </c>
       <c r="H180" s="6" t="s">
         <v>16</v>
       </c>
@@ -13766,11 +9281,11 @@
       </c>
       <c r="M180" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>353</v>
       </c>
       <c r="N180" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O180">
         <f t="shared" si="21"/>
@@ -13794,7 +9309,9 @@
       <c r="F181" s="4">
         <v>8</v>
       </c>
-      <c r="G181" s="4"/>
+      <c r="G181" s="4">
+        <v>8</v>
+      </c>
       <c r="H181" s="6" t="s">
         <v>16</v>
       </c>
@@ -13808,11 +9325,11 @@
       </c>
       <c r="M181" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="N181" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O181">
         <f t="shared" si="21"/>
@@ -13839,7 +9356,9 @@
       <c r="F182" s="4">
         <v>8</v>
       </c>
-      <c r="G182" s="4"/>
+      <c r="G182" s="4">
+        <v>8</v>
+      </c>
       <c r="H182" s="6" t="s">
         <v>16</v>
       </c>
@@ -13853,11 +9372,11 @@
       </c>
       <c r="M182" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>369</v>
       </c>
       <c r="N182" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O182">
         <f t="shared" si="21"/>
@@ -13881,7 +9400,9 @@
       <c r="F183" s="4">
         <v>8</v>
       </c>
-      <c r="G183" s="4"/>
+      <c r="G183" s="4">
+        <v>8</v>
+      </c>
       <c r="H183" s="6" t="s">
         <v>16</v>
       </c>
@@ -13895,11 +9416,11 @@
       </c>
       <c r="M183" s="4">
         <f t="shared" si="19"/>
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="N183" s="4">
         <f t="shared" si="20"/>
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="O183">
         <f t="shared" si="21"/>
@@ -13923,9 +9444,35 @@
       <c r="F184" s="4">
         <v>8</v>
       </c>
-      <c r="G184" s="4"/>
+      <c r="G184" s="4">
+        <v>8</v>
+      </c>
       <c r="H184" s="6" t="s">
         <v>16</v>
+      </c>
+      <c r="J184" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K184" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M184" s="4">
+        <f t="shared" si="19"/>
+        <v>385</v>
+      </c>
+      <c r="N184" s="4">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="21"/>
+        <v>432</v>
+      </c>
+      <c r="P184">
+        <f t="shared" si="22"/>
+        <v>93</v>
       </c>
     </row>
     <row r="185" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13941,14 +9488,36 @@
       <c r="F185" s="12">
         <v>8</v>
       </c>
-      <c r="G185" s="12"/>
+      <c r="G185" s="12">
+        <v>8</v>
+      </c>
       <c r="H185" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J185" s="12"/>
-      <c r="K185" s="12"/>
-      <c r="M185" s="12"/>
-      <c r="N185" s="12"/>
+      <c r="J185" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K185" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M185" s="4">
+        <f t="shared" si="19"/>
+        <v>393</v>
+      </c>
+      <c r="N185" s="4">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="21"/>
+        <v>440</v>
+      </c>
+      <c r="P185">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B186" s="38">
@@ -13965,14 +9534,36 @@
       <c r="F186" s="9">
         <v>8</v>
       </c>
-      <c r="G186" s="9"/>
+      <c r="G186" s="9">
+        <v>8</v>
+      </c>
       <c r="H186" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J186" s="9"/>
-      <c r="K186" s="9"/>
-      <c r="M186" s="9"/>
-      <c r="N186" s="9"/>
+      <c r="J186" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K186" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M186" s="4">
+        <f t="shared" si="19"/>
+        <v>401</v>
+      </c>
+      <c r="N186" s="4">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="21"/>
+        <v>448</v>
+      </c>
+      <c r="P186">
+        <f t="shared" si="22"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B187" s="39"/>
@@ -13989,13 +9580,35 @@
       <c r="F187" s="4">
         <v>2</v>
       </c>
-      <c r="G187" s="4"/>
+      <c r="G187" s="4">
+        <v>2</v>
+      </c>
       <c r="H187" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="J187" s="4">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K187" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M187" s="4">
+        <f t="shared" si="19"/>
+        <v>403</v>
+      </c>
+      <c r="N187" s="4">
+        <f t="shared" si="20"/>
+        <v>90</v>
+      </c>
       <c r="O187">
-        <f>O183+P183</f>
-        <v>517</v>
+        <f t="shared" si="21"/>
+        <v>450</v>
+      </c>
+      <c r="P187">
+        <f t="shared" si="22"/>
+        <v>93</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
@@ -14009,6 +9622,14 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
       <c r="H188" s="6"/>
+      <c r="J188" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K188" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -14024,6 +9645,18 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
       <c r="H189" s="6"/>
+      <c r="J189" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K189" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f>O183+P183</f>
+        <v>517</v>
+      </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B190" s="39"/>
@@ -14036,6 +9669,14 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
       <c r="H190" s="6"/>
+      <c r="J190" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K190" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B191" s="39"/>
@@ -14048,6 +9689,14 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
       <c r="H191" s="6"/>
+      <c r="J191" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K191" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="192" spans="1:16" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="40"/>
@@ -14060,8 +9709,14 @@
       <c r="F192" s="12"/>
       <c r="G192" s="12"/>
       <c r="H192" s="13"/>
-      <c r="J192" s="12"/>
-      <c r="K192" s="12"/>
+      <c r="J192" s="4">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K192" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
       <c r="M192" s="12"/>
       <c r="N192" s="12"/>
     </row>
@@ -14077,8 +9732,8 @@
         <v>543</v>
       </c>
       <c r="G194">
-        <f>SUM(G3:G183)</f>
-        <v>176</v>
+        <f>SUM(G3:G187)</f>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="6:14" x14ac:dyDescent="0.25">
@@ -14119,464 +9774,554 @@
     <mergeCell ref="B165:B171"/>
   </mergeCells>
   <conditionalFormatting sqref="D2 D4:D6 D1103:D1048576 D9:D20 D66:D157 D23:D64">
-    <cfRule type="cellIs" dxfId="98" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D6 D1103:D1048576 D9:D20 D66:D157 D23:D64">
-    <cfRule type="cellIs" dxfId="97" priority="127" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="145" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="96" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="142" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D22">
-    <cfRule type="cellIs" dxfId="95" priority="123" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="141" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="94" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="93" priority="118" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="136" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="92" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="135" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="cellIs" dxfId="91" priority="116" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="134" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1103:D1048576 D66:D157 D1:D64">
-    <cfRule type="cellIs" dxfId="90" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="120" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="timePeriod" dxfId="89" priority="101" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="110" priority="119" timePeriod="today">
       <formula>FLOOR(C1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3:N183">
-    <cfRule type="cellIs" dxfId="88" priority="93" operator="greaterThan">
+  <conditionalFormatting sqref="N3:N187">
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="greaterThan">
       <formula>89</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="108" priority="112" operator="lessThan">
       <formula>90</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M183">
-    <cfRule type="cellIs" dxfId="86" priority="91" operator="greaterThan">
+  <conditionalFormatting sqref="M3:M187">
+    <cfRule type="cellIs" dxfId="107" priority="109" operator="greaterThan">
       <formula>449</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="106" priority="110" operator="lessThan">
       <formula>450</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="84" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="106" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" dxfId="83" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="105" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D185">
-    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="102" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D185">
-    <cfRule type="cellIs" dxfId="81" priority="83" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="101" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D158:D185">
-    <cfRule type="cellIs" dxfId="80" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="100" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D139:D140">
-    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
       <formula>"lernen"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D66:D1048576 D1:D64">
-    <cfRule type="cellIs" dxfId="78" priority="80" operator="equal">
+  <conditionalFormatting sqref="D1:D64 D66:D1048576">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
       <formula>"Ferien"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1048576">
-    <cfRule type="cellIs" dxfId="77" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="cellIs" dxfId="76" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="94" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="cellIs" dxfId="75" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D161">
-    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="93" priority="90" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D162">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="89" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="70" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="88" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="69" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="90" priority="87" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D163">
-    <cfRule type="cellIs" dxfId="68" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="86" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="67" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="66" priority="66" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="64" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="63" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="61" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="60" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="78" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="59" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171">
-    <cfRule type="cellIs" dxfId="58" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171">
-    <cfRule type="cellIs" dxfId="57" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D171">
-    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="55" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="54" priority="54" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D186:D192">
-    <cfRule type="cellIs" dxfId="53" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="67" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="51" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="50" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="65" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="49" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="64" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="48" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="63" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="47" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="62" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="61" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="60" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="59" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="43" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="58" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="42" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="57" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D175">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="55" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="54" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D176">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="53" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="52" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D177">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="50" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="49" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="47" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="46" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="44" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="43" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="42" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="41" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="39" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D168">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="37" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D169">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="35" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D170">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="30" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="29" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="26" operator="equal">
       <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"Köln"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
       <formula>"LAN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="E1:E97 E100:E1048576">
+    <cfRule type="beginsWith" dxfId="29" priority="19" operator="beginsWith" text="2">
+      <formula>LEFT(E1,LEN("2"))="2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="21" operator="equal">
+      <formula>"Köln"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="22" operator="equal">
+      <formula>"LAN"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"LAN"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"Köln"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="1" operator="beginsWith" text="2">
-      <formula>LEFT(E1,LEN("2"))="2"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="24" priority="18" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="23" priority="17" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
+      <formula>"Arbeit normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D170">
+    <cfRule type="cellIs" dxfId="19" priority="13" operator="equal">
+      <formula>"Arbeit normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="18" priority="12" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="17" priority="11" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+      <formula>"Arbeit normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>"Arbeit normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"Arbeit normal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"Arbeit normal"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15938,37 +11683,37 @@
     <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <conditionalFormatting sqref="B33:AG33">
-    <cfRule type="cellIs" dxfId="623" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:XFD5">
-    <cfRule type="cellIs" dxfId="622" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:XFD9">
-    <cfRule type="cellIs" dxfId="621" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:XFD15">
-    <cfRule type="cellIs" dxfId="620" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:XFD18">
-    <cfRule type="cellIs" dxfId="619" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:XFD26">
-    <cfRule type="cellIs" dxfId="618" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:XFD31">
-    <cfRule type="cellIs" dxfId="617" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
